--- a/20170502-온도시험/20170502-온도시험.xlsx
+++ b/20170502-온도시험/20170502-온도시험.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8175" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8175" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="20170502-자사장비" sheetId="1" r:id="rId1"/>
     <sheet name="20170508-MAN" sheetId="3" r:id="rId2"/>
     <sheet name="20170508-자사장비(보정전)" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="20170629-자사장비(보정전-2)" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="20">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +99,14 @@
   </si>
   <si>
     <t>인덕티브 센서 트랜스미터 온도시험(2017-05-08- 자사장비(보정전))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>센서온도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덕티브 센서 트랜스미터 온도시험(2017-06-29- 자사장비(보정전))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -183,7 +192,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -207,6 +216,15 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -815,11 +833,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="301505832"/>
-        <c:axId val="301506224"/>
+        <c:axId val="273540352"/>
+        <c:axId val="273540744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="301505832"/>
+        <c:axId val="273540352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="160"/>
@@ -878,12 +896,12 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301506224"/>
+        <c:crossAx val="273540744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="301506224"/>
+        <c:axId val="273540744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -942,7 +960,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301505832"/>
+        <c:crossAx val="273540352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1626,11 +1644,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="301106720"/>
-        <c:axId val="301107112"/>
+        <c:axId val="234732712"/>
+        <c:axId val="234733104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="301106720"/>
+        <c:axId val="234732712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="160"/>
@@ -1689,12 +1707,12 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301107112"/>
+        <c:crossAx val="234733104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="301107112"/>
+        <c:axId val="234733104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10"/>
@@ -1752,7 +1770,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301106720"/>
+        <c:crossAx val="234732712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2436,11 +2454,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="301107896"/>
-        <c:axId val="301108288"/>
+        <c:axId val="234733888"/>
+        <c:axId val="234734280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="301107896"/>
+        <c:axId val="234733888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="160"/>
@@ -2499,12 +2517,12 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301108288"/>
+        <c:crossAx val="234734280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="301108288"/>
+        <c:axId val="234734280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2561,7 +2579,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301107896"/>
+        <c:crossAx val="234733888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2633,6 +2651,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20170629-자사장비(보정전-2)'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>상승</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -2668,17 +2697,17 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="4"/>
+            <c:order val="6"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.13054953862932339"/>
-                  <c:y val="2.0244017614952817E-3"/>
+                  <c:x val="2.5925922145534828E-2"/>
+                  <c:y val="-0.17598722510185222"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="#,##0.00000000000000000000_);[Red]\(#,##0.00000000000000000000\)" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.000000000000000000000000000000_);[Red]\(#,##0.000000000000000000000000000000\)" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -2710,96 +2739,102 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$C$3:$C$15</c:f>
+              <c:f>'20170629-자사장비(보정전-2)'!$D$4:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>135</c:v>
+                  <c:v>20.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>123</c:v>
+                  <c:v>30.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>36</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31</c:v>
+                  <c:v>130.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24</c:v>
+                  <c:v>139.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>150.30000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$3:$D$15</c:f>
+              <c:f>'20170629-자사장비(보정전-2)'!$F$4:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2.06</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.06</c:v>
+                  <c:v>6.51</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.96</c:v>
+                  <c:v>6.53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.82</c:v>
+                  <c:v>6.58</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.69</c:v>
+                  <c:v>6.69</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.61</c:v>
+                  <c:v>6.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.59</c:v>
+                  <c:v>6.86</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.61</c:v>
+                  <c:v>6.89</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.62</c:v>
+                  <c:v>6.92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.63</c:v>
+                  <c:v>6.85</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.63</c:v>
+                  <c:v>6.84</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.63</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.65</c:v>
+                  <c:v>8.66</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2809,6 +2844,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20170629-자사장비(보정전-2)'!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>하강</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -2835,96 +2881,230 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$C$3:$C$15</c:f>
+              <c:f>'20170629-자사장비(보정전-2)'!$D$18:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$3:$E$15</c:f>
+              <c:f>'20170629-자사장비(보정전-2)'!$F$18:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1.65</c:v>
+                  <c:v>8.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20170629-자사장비(보정전-2)'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>상승</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20170629-자사장비(보정전-2)'!$D$4:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>20.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.65</c:v>
+                  <c:v>30.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.65</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.65</c:v>
+                  <c:v>50.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.65</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.65</c:v>
+                  <c:v>70.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.65</c:v>
+                  <c:v>79.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.65</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.65</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.65</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.65</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.65</c:v>
+                  <c:v>130.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.65</c:v>
+                  <c:v>139.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>150.30000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20170629-자사장비(보정전-2)'!$G$4:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20170629-자사장비(보정전-2)'!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>하강</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20170629-자사장비(보정전-2)'!$D$18:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20170629-자사장비(보정전-2)'!$G$18:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>6.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2939,14 +3119,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="301109072"/>
-        <c:axId val="301109464"/>
+        <c:axId val="78856296"/>
+        <c:axId val="78856688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="301109072"/>
+        <c:axId val="78856296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="150"/>
+          <c:max val="160"/>
           <c:min val="20"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3002,15 +3182,14 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301109464"/>
+        <c:crossAx val="78856688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="301109464"/>
+        <c:axId val="78856688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="1.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3065,7 +3244,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301109072"/>
+        <c:crossAx val="78856296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3176,7 +3355,13 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:numFmt formatCode="#,##0.000000000000000000000000000000_);[Red]\(#,##0.000000000000000000000000000000\)" sourceLinked="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13054953862932339"/>
+                  <c:y val="2.0244017614952817E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.00000000000000000000_);[Red]\(#,##0.00000000000000000000\)" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -3208,7 +3393,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$C$17:$C$29</c:f>
+              <c:f>Sheet2!$C$3:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3256,48 +3441,173 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$17:$D$29</c:f>
+              <c:f>Sheet2!$D$3:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.41000000000000014</c:v>
+                  <c:v>2.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41000000000000014</c:v>
+                  <c:v>2.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31000000000000005</c:v>
+                  <c:v>1.96</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17000000000000015</c:v>
+                  <c:v>1.82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0000000000000036E-2</c:v>
+                  <c:v>1.69</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.9999999999999813E-2</c:v>
+                  <c:v>1.61</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.9999999999999831E-2</c:v>
+                  <c:v>1.59</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.9999999999999813E-2</c:v>
+                  <c:v>1.61</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.9999999999999805E-2</c:v>
+                  <c:v>1.62</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.0000000000000018E-2</c:v>
+                  <c:v>1.63</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.0000000000000018E-2</c:v>
+                  <c:v>1.63</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.0000000000000018E-2</c:v>
+                  <c:v>1.63</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$3:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3312,11 +3622,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="301110248"/>
-        <c:axId val="234587664"/>
+        <c:axId val="78857472"/>
+        <c:axId val="78857864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="301110248"/>
+        <c:axId val="78857472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -3375,12 +3685,385 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234587664"/>
+        <c:crossAx val="78857864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="234587664"/>
+        <c:axId val="78857864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="78857472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="#,##0.000000000000000000000000000000_);[Red]\(#,##0.000000000000000000000000000000\)" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ko-KR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$17:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$17:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.41000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0000000000000036E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.9999999999999813E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.9999999999999831E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.9999999999999813E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.9999999999999805E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.0000000000000018E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.0000000000000018E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.0000000000000018E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="78858648"/>
+        <c:axId val="78859040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="78858648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="150"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="78859040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="78859040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3437,7 +4120,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301110248"/>
+        <c:crossAx val="78858648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3686,6 +4369,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5751,6 +6474,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6376,6 +7615,160 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>565879</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>70385</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4945200" cy="1319336"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20548801">
+          <a:off x="2956654" y="3966110"/>
+          <a:ext cx="4945200" cy="1319336"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="3200" b="1" cap="none" spc="0">
+              <a:ln w="22225">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>기구물 파손 및 코일</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="3200" b="1" cap="none" spc="0" baseline="0">
+              <a:ln w="22225">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t> 손상으로</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="3200" b="1" cap="none" spc="0">
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="3200" b="1" cap="none" spc="0">
+              <a:ln w="22225">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>시험 중단</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="3200" b="1" cap="none" spc="0">
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="나눔바른고딕" panose="020B0603020101020101" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6723,10 +8116,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -6741,8 +8134,8 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
@@ -6758,7 +8151,7 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1">
@@ -6778,7 +8171,7 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="1">
         <v>30</v>
       </c>
@@ -6796,7 +8189,7 @@
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="1">
         <v>40</v>
       </c>
@@ -6814,7 +8207,7 @@
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="1">
         <v>50</v>
       </c>
@@ -6832,7 +8225,7 @@
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="1">
         <v>60</v>
       </c>
@@ -6850,7 +8243,7 @@
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="1">
         <v>70</v>
       </c>
@@ -6868,7 +8261,7 @@
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="1">
         <v>80</v>
       </c>
@@ -6886,7 +8279,7 @@
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="1">
         <v>90</v>
       </c>
@@ -6904,7 +8297,7 @@
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="1">
         <v>100</v>
       </c>
@@ -6922,7 +8315,7 @@
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="1">
         <v>110</v>
       </c>
@@ -6940,7 +8333,7 @@
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="1">
         <v>120</v>
       </c>
@@ -6958,7 +8351,7 @@
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="1">
         <v>130</v>
       </c>
@@ -6976,7 +8369,7 @@
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="1">
         <v>140</v>
       </c>
@@ -6994,7 +8387,7 @@
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="1">
         <v>150</v>
       </c>
@@ -7012,7 +8405,7 @@
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="1">
@@ -7032,7 +8425,7 @@
       <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="1">
         <v>130</v>
       </c>
@@ -7050,7 +8443,7 @@
       <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="1">
         <v>120</v>
       </c>
@@ -7068,7 +8461,7 @@
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="1">
         <v>110</v>
       </c>
@@ -7086,7 +8479,7 @@
       <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="1">
         <v>100</v>
       </c>
@@ -7104,7 +8497,7 @@
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="8"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="1">
         <v>90</v>
       </c>
@@ -7122,7 +8515,7 @@
       <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="8"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="1">
         <v>80</v>
       </c>
@@ -7140,7 +8533,7 @@
       <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="1">
         <v>70</v>
       </c>
@@ -7158,7 +8551,7 @@
       <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26" s="8"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="1">
         <v>60</v>
       </c>
@@ -7176,7 +8569,7 @@
       <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="1">
         <v>50</v>
       </c>
@@ -7194,7 +8587,7 @@
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" s="8"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="1">
         <v>40</v>
       </c>
@@ -7212,7 +8605,7 @@
       <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29" s="8"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="1">
         <v>30</v>
       </c>
@@ -7230,7 +8623,7 @@
       <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B30" s="8"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="1">
         <v>20</v>
       </c>
@@ -7265,8 +8658,8 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7280,10 +8673,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -7295,13 +8688,13 @@
       <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
@@ -7311,13 +8704,13 @@
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1">
@@ -7337,7 +8730,7 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="1">
         <v>30</v>
       </c>
@@ -7355,7 +8748,7 @@
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="1">
         <v>40</v>
       </c>
@@ -7373,7 +8766,7 @@
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="1">
         <v>50</v>
       </c>
@@ -7391,7 +8784,7 @@
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="1">
         <v>60</v>
       </c>
@@ -7409,7 +8802,7 @@
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="1">
         <v>70</v>
       </c>
@@ -7427,7 +8820,7 @@
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="1">
         <v>80</v>
       </c>
@@ -7445,7 +8838,7 @@
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="1">
         <v>90</v>
       </c>
@@ -7463,7 +8856,7 @@
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="1">
         <v>100</v>
       </c>
@@ -7481,7 +8874,7 @@
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="1">
         <v>110</v>
       </c>
@@ -7499,7 +8892,7 @@
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="1">
         <v>120</v>
       </c>
@@ -7517,7 +8910,7 @@
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="1">
         <v>130</v>
       </c>
@@ -7535,7 +8928,7 @@
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="1">
         <v>140</v>
       </c>
@@ -7553,7 +8946,7 @@
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="1">
         <v>150</v>
       </c>
@@ -7571,7 +8964,7 @@
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="1">
@@ -7591,7 +8984,7 @@
       <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="1">
         <v>130</v>
       </c>
@@ -7609,7 +9002,7 @@
       <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="1">
         <v>120</v>
       </c>
@@ -7627,7 +9020,7 @@
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="1">
         <v>110</v>
       </c>
@@ -7645,7 +9038,7 @@
       <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="1">
         <v>100</v>
       </c>
@@ -7663,7 +9056,7 @@
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="8"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="1">
         <v>90</v>
       </c>
@@ -7681,7 +9074,7 @@
       <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="8"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="1">
         <v>80</v>
       </c>
@@ -7699,7 +9092,7 @@
       <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="1">
         <v>70</v>
       </c>
@@ -7717,7 +9110,7 @@
       <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26" s="8"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="1">
         <v>60</v>
       </c>
@@ -7735,7 +9128,7 @@
       <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="1">
         <v>50</v>
       </c>
@@ -7753,7 +9146,7 @@
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" s="8"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="1">
         <v>40</v>
       </c>
@@ -7771,7 +9164,7 @@
       <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29" s="8"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="1">
         <v>30</v>
       </c>
@@ -7789,7 +9182,7 @@
       <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B30" s="8"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="1">
         <v>20</v>
       </c>
@@ -7825,8 +9218,8 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7840,10 +9233,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -7855,13 +9248,13 @@
       <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
@@ -7871,13 +9264,13 @@
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1">
@@ -7897,7 +9290,7 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="1">
         <v>30</v>
       </c>
@@ -7915,7 +9308,7 @@
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="1">
         <v>40</v>
       </c>
@@ -7933,7 +9326,7 @@
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="1">
         <v>50</v>
       </c>
@@ -7951,7 +9344,7 @@
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="1">
         <v>60</v>
       </c>
@@ -7969,7 +9362,7 @@
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="1">
         <v>70</v>
       </c>
@@ -7987,7 +9380,7 @@
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="1">
         <v>80</v>
       </c>
@@ -8005,7 +9398,7 @@
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="1">
         <v>90</v>
       </c>
@@ -8023,7 +9416,7 @@
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="1">
         <v>100</v>
       </c>
@@ -8041,7 +9434,7 @@
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="1">
         <v>110</v>
       </c>
@@ -8059,7 +9452,7 @@
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="1">
         <v>120</v>
       </c>
@@ -8077,7 +9470,7 @@
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="1">
         <v>130</v>
       </c>
@@ -8095,7 +9488,7 @@
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="1">
         <v>140</v>
       </c>
@@ -8113,7 +9506,7 @@
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="1">
         <v>150</v>
       </c>
@@ -8131,7 +9524,7 @@
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="1">
@@ -8151,7 +9544,7 @@
       <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="1">
         <v>130</v>
       </c>
@@ -8169,7 +9562,7 @@
       <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="1">
         <v>120</v>
       </c>
@@ -8187,7 +9580,7 @@
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="1">
         <v>110</v>
       </c>
@@ -8205,7 +9598,7 @@
       <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="1">
         <v>100</v>
       </c>
@@ -8223,7 +9616,7 @@
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="8"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="1">
         <v>90</v>
       </c>
@@ -8241,7 +9634,7 @@
       <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="8"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="1">
         <v>80</v>
       </c>
@@ -8259,7 +9652,7 @@
       <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="1">
         <v>70</v>
       </c>
@@ -8277,7 +9670,7 @@
       <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26" s="8"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="1">
         <v>60</v>
       </c>
@@ -8295,7 +9688,7 @@
       <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="1">
         <v>50</v>
       </c>
@@ -8313,7 +9706,7 @@
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" s="8"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="1">
         <v>40</v>
       </c>
@@ -8331,7 +9724,7 @@
       <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29" s="8"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="1">
         <v>30</v>
       </c>
@@ -8349,7 +9742,7 @@
       <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B30" s="8"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="1">
         <v>20</v>
       </c>
@@ -8380,6 +9773,557 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8">
+        <v>20</v>
+      </c>
+      <c r="D4" s="8">
+        <v>20.3</v>
+      </c>
+      <c r="E4" s="8">
+        <v>24</v>
+      </c>
+      <c r="F4" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="G4" s="8">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="8">
+        <v>30</v>
+      </c>
+      <c r="D5" s="8">
+        <v>30.1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>30</v>
+      </c>
+      <c r="F5" s="8">
+        <v>6.51</v>
+      </c>
+      <c r="G5" s="10">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="8">
+        <v>40</v>
+      </c>
+      <c r="D6" s="8">
+        <v>40</v>
+      </c>
+      <c r="E6" s="8">
+        <v>37</v>
+      </c>
+      <c r="F6" s="8">
+        <v>6.53</v>
+      </c>
+      <c r="G6" s="10">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="8">
+        <v>50</v>
+      </c>
+      <c r="D7" s="8">
+        <v>50.1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>44</v>
+      </c>
+      <c r="F7" s="8">
+        <v>6.58</v>
+      </c>
+      <c r="G7" s="10">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="8">
+        <v>60</v>
+      </c>
+      <c r="D8" s="8">
+        <v>60</v>
+      </c>
+      <c r="E8" s="8">
+        <v>54</v>
+      </c>
+      <c r="F8" s="8">
+        <v>6.69</v>
+      </c>
+      <c r="G8" s="10">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="8">
+        <v>70</v>
+      </c>
+      <c r="D9" s="8">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="E9" s="8">
+        <v>64</v>
+      </c>
+      <c r="F9" s="8">
+        <v>6.8</v>
+      </c>
+      <c r="G9" s="10">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="8">
+        <v>80</v>
+      </c>
+      <c r="D10" s="8">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="E10" s="8">
+        <v>73</v>
+      </c>
+      <c r="F10" s="8">
+        <v>6.86</v>
+      </c>
+      <c r="G10" s="10">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>8</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="8">
+        <v>90</v>
+      </c>
+      <c r="D11" s="8">
+        <v>90</v>
+      </c>
+      <c r="E11" s="8">
+        <v>85</v>
+      </c>
+      <c r="F11" s="8">
+        <v>6.89</v>
+      </c>
+      <c r="G11" s="10">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>9</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="8">
+        <v>100</v>
+      </c>
+      <c r="D12" s="8">
+        <v>100</v>
+      </c>
+      <c r="E12" s="8">
+        <v>96</v>
+      </c>
+      <c r="F12" s="8">
+        <v>6.92</v>
+      </c>
+      <c r="G12" s="10">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>10</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="8">
+        <v>110</v>
+      </c>
+      <c r="D13" s="8">
+        <v>110</v>
+      </c>
+      <c r="E13" s="8">
+        <v>107</v>
+      </c>
+      <c r="F13" s="8">
+        <v>6.85</v>
+      </c>
+      <c r="G13" s="10">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>11</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="8">
+        <v>120</v>
+      </c>
+      <c r="D14" s="8">
+        <v>120</v>
+      </c>
+      <c r="E14" s="8">
+        <v>118</v>
+      </c>
+      <c r="F14" s="8">
+        <v>6.84</v>
+      </c>
+      <c r="G14" s="10">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>12</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="8">
+        <v>130</v>
+      </c>
+      <c r="D15" s="8">
+        <v>130.1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>130</v>
+      </c>
+      <c r="F15" s="8">
+        <v>7</v>
+      </c>
+      <c r="G15" s="10">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>13</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="8">
+        <v>140</v>
+      </c>
+      <c r="D16" s="8">
+        <v>139.9</v>
+      </c>
+      <c r="E16" s="8">
+        <v>142</v>
+      </c>
+      <c r="F16" s="8">
+        <v>8.66</v>
+      </c>
+      <c r="G16" s="10">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>14</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="8">
+        <v>150</v>
+      </c>
+      <c r="D17" s="8">
+        <v>150.30000000000001</v>
+      </c>
+      <c r="E17" s="8">
+        <v>150</v>
+      </c>
+      <c r="F17" s="8">
+        <v>9.99</v>
+      </c>
+      <c r="G17" s="10">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>15</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="8">
+        <v>140</v>
+      </c>
+      <c r="D18" s="8">
+        <v>140</v>
+      </c>
+      <c r="E18" s="8">
+        <v>141</v>
+      </c>
+      <c r="F18" s="8">
+        <v>8.24</v>
+      </c>
+      <c r="G18" s="10">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>16</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="8">
+        <v>130</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>17</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="8">
+        <v>120</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>18</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="8">
+        <v>110</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>19</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="8">
+        <v>100</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>20</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="8">
+        <v>90</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>21</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="8">
+        <v>80</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>22</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="8">
+        <v>70</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>23</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="8">
+        <v>60</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>24</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="8">
+        <v>50</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>25</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="8">
+        <v>40</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>26</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="8">
+        <v>30</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>27</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="8">
+        <v>20</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B4:B17"/>
+    <mergeCell ref="B18:B30"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
